--- a/Result/check1/2025-03-28.xlsx
+++ b/Result/check1/2025-03-28.xlsx
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
